--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Ltbr</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.02936066666666667</v>
+        <v>0.0390265</v>
       </c>
       <c r="H2">
-        <v>0.08808200000000001</v>
+        <v>0.078053</v>
       </c>
       <c r="I2">
-        <v>0.007183142571459352</v>
+        <v>0.001707596593400255</v>
       </c>
       <c r="J2">
-        <v>0.007183142571459351</v>
+        <v>0.001139046072664639</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.466326</v>
+        <v>11.0717415</v>
       </c>
       <c r="N2">
-        <v>26.932652</v>
+        <v>22.143483</v>
       </c>
       <c r="O2">
-        <v>0.178436493443925</v>
+        <v>0.1407822130710894</v>
       </c>
       <c r="P2">
-        <v>0.1320271070991917</v>
+        <v>0.1029152560919386</v>
       </c>
       <c r="Q2">
-        <v>0.3953803089106668</v>
+        <v>0.43209131964975</v>
       </c>
       <c r="R2">
-        <v>2.372281853464</v>
+        <v>1.728365278599</v>
       </c>
       <c r="S2">
-        <v>0.001281734772358985</v>
+        <v>0.0002403992274515411</v>
       </c>
       <c r="T2">
-        <v>0.0009483695335908271</v>
+        <v>0.0001172252182687982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.02936066666666667</v>
+        <v>0.0390265</v>
       </c>
       <c r="H3">
-        <v>0.08808200000000001</v>
+        <v>0.078053</v>
       </c>
       <c r="I3">
-        <v>0.007183142571459352</v>
+        <v>0.001707596593400255</v>
       </c>
       <c r="J3">
-        <v>0.007183142571459351</v>
+        <v>0.001139046072664639</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>43.682362</v>
       </c>
       <c r="O3">
-        <v>0.1929387298022281</v>
+        <v>0.1851470127661626</v>
       </c>
       <c r="P3">
-        <v>0.2141362048609124</v>
+        <v>0.2030205217458683</v>
       </c>
       <c r="Q3">
-        <v>0.4275144232982223</v>
+        <v>0.5682565668643332</v>
       </c>
       <c r="R3">
-        <v>3.847629809684</v>
+        <v>3.409539401186</v>
       </c>
       <c r="S3">
-        <v>0.001385906403725678</v>
+        <v>0.0003161564082777328</v>
       </c>
       <c r="T3">
-        <v>0.00153817088922716</v>
+        <v>0.0002312497279649573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.02936066666666667</v>
+        <v>0.0390265</v>
       </c>
       <c r="H4">
-        <v>0.08808200000000001</v>
+        <v>0.078053</v>
       </c>
       <c r="I4">
-        <v>0.007183142571459352</v>
+        <v>0.001707596593400255</v>
       </c>
       <c r="J4">
-        <v>0.007183142571459351</v>
+        <v>0.001139046072664639</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.381108</v>
+        <v>16.468055</v>
       </c>
       <c r="N4">
-        <v>40.143324</v>
+        <v>49.404165</v>
       </c>
       <c r="O4">
-        <v>0.1773073063814475</v>
+        <v>0.2093987858979925</v>
       </c>
       <c r="P4">
-        <v>0.1967874139191919</v>
+        <v>0.2296134846077913</v>
       </c>
       <c r="Q4">
-        <v>0.3928782516186667</v>
+        <v>0.6426905484575</v>
       </c>
       <c r="R4">
-        <v>3.535904264568</v>
+        <v>3.856143290745</v>
       </c>
       <c r="S4">
-        <v>0.001273623660699362</v>
+        <v>0.0003575686534615614</v>
       </c>
       <c r="T4">
-        <v>0.00141355205045034</v>
+        <v>0.0002615403378733473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.02936066666666667</v>
+        <v>0.0390265</v>
       </c>
       <c r="H5">
-        <v>0.08808200000000001</v>
+        <v>0.078053</v>
       </c>
       <c r="I5">
-        <v>0.007183142571459352</v>
+        <v>0.001707596593400255</v>
       </c>
       <c r="J5">
-        <v>0.007183142571459351</v>
+        <v>0.001139046072664639</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.945679999999999</v>
+        <v>9.699348499999999</v>
       </c>
       <c r="N5">
-        <v>17.89136</v>
+        <v>19.398697</v>
       </c>
       <c r="O5">
-        <v>0.1185353578007432</v>
+        <v>0.1233316138366987</v>
       </c>
       <c r="P5">
-        <v>0.08770560369881859</v>
+        <v>0.09015843937491316</v>
       </c>
       <c r="Q5">
-        <v>0.2626511285866667</v>
+        <v>0.3785316242352499</v>
       </c>
       <c r="R5">
-        <v>1.57590677152</v>
+        <v>1.514126496941</v>
       </c>
       <c r="S5">
-        <v>0.0008514563748416849</v>
+        <v>0.0002106006436461024</v>
       </c>
       <c r="T5">
-        <v>0.0006300018556845265</v>
+        <v>0.0001026946162875678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.02936066666666667</v>
+        <v>0.0390265</v>
       </c>
       <c r="H6">
-        <v>0.08808200000000001</v>
+        <v>0.078053</v>
       </c>
       <c r="I6">
-        <v>0.007183142571459352</v>
+        <v>0.001707596593400255</v>
       </c>
       <c r="J6">
-        <v>0.007183142571459351</v>
+        <v>0.001139046072664639</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.526935333333334</v>
+        <v>14.41376933333333</v>
       </c>
       <c r="N6">
-        <v>28.580806</v>
+        <v>43.241308</v>
       </c>
       <c r="O6">
-        <v>0.1262373222025838</v>
+        <v>0.1832776122385866</v>
       </c>
       <c r="P6">
-        <v>0.1401065567083116</v>
+        <v>0.2009706551842089</v>
       </c>
       <c r="Q6">
-        <v>0.2797171726768889</v>
+        <v>0.5625189688873333</v>
       </c>
       <c r="R6">
-        <v>2.517454554092001</v>
+        <v>3.375113813324</v>
       </c>
       <c r="S6">
-        <v>0.0009067806832204103</v>
+        <v>0.0003129642263051434</v>
       </c>
       <c r="T6">
-        <v>0.001006405372032057</v>
+        <v>0.0002289148355084126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.02936066666666667</v>
+        <v>0.0390265</v>
       </c>
       <c r="H7">
-        <v>0.08808200000000001</v>
+        <v>0.078053</v>
       </c>
       <c r="I7">
-        <v>0.007183142571459352</v>
+        <v>0.001707596593400255</v>
       </c>
       <c r="J7">
-        <v>0.007183142571459351</v>
+        <v>0.001139046072664639</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.58761566666667</v>
+        <v>12.430761</v>
       </c>
       <c r="N7">
-        <v>46.762847</v>
+        <v>37.292283</v>
       </c>
       <c r="O7">
-        <v>0.2065447903690724</v>
+        <v>0.1580627621894702</v>
       </c>
       <c r="P7">
-        <v>0.2292371137135739</v>
+        <v>0.1733216429952798</v>
       </c>
       <c r="Q7">
-        <v>0.4576627877171112</v>
+        <v>0.4851290941664999</v>
       </c>
       <c r="R7">
-        <v>4.118965089454</v>
+        <v>2.910774564999</v>
       </c>
       <c r="S7">
-        <v>0.001483640676613232</v>
+        <v>0.0002699074342581739</v>
       </c>
       <c r="T7">
-        <v>0.001646642870474441</v>
+        <v>0.0001974213367615561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.927719</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H8">
-        <v>5.783157</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I8">
-        <v>0.4716200954126058</v>
+        <v>0.001284670016013745</v>
       </c>
       <c r="J8">
-        <v>0.4716200954126058</v>
+        <v>0.00128540166518195</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.466326</v>
+        <v>11.0717415</v>
       </c>
       <c r="N8">
-        <v>26.932652</v>
+        <v>22.143483</v>
       </c>
       <c r="O8">
-        <v>0.178436493443925</v>
+        <v>0.1407822130710894</v>
       </c>
       <c r="P8">
-        <v>0.1320271070991917</v>
+        <v>0.1029152560919386</v>
       </c>
       <c r="Q8">
-        <v>25.959292490394</v>
+        <v>0.325073711601</v>
       </c>
       <c r="R8">
-        <v>155.755754942364</v>
+        <v>1.950442269606</v>
       </c>
       <c r="S8">
-        <v>0.08415423606311473</v>
+        <v>0.0001808586879204869</v>
       </c>
       <c r="T8">
-        <v>0.06226663684717112</v>
+        <v>0.0001322874415532047</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.927719</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H9">
-        <v>5.783157</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I9">
-        <v>0.4716200954126058</v>
+        <v>0.001284670016013745</v>
       </c>
       <c r="J9">
-        <v>0.4716200954126058</v>
+        <v>0.00128540166518195</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>43.682362</v>
       </c>
       <c r="O9">
-        <v>0.1929387298022281</v>
+        <v>0.1851470127661626</v>
       </c>
       <c r="P9">
-        <v>0.2141362048609124</v>
+        <v>0.2030205217458683</v>
       </c>
       <c r="Q9">
-        <v>28.069106397426</v>
+        <v>0.4275144232982221</v>
       </c>
       <c r="R9">
-        <v>252.621957576834</v>
+        <v>3.847629809683999</v>
       </c>
       <c r="S9">
-        <v>0.0909937821581138</v>
+        <v>0.0002378528158552032</v>
       </c>
       <c r="T9">
-        <v>0.1009909373677968</v>
+        <v>0.0002609629167182475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.927719</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H10">
-        <v>5.783157</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I10">
-        <v>0.4716200954126058</v>
+        <v>0.001284670016013745</v>
       </c>
       <c r="J10">
-        <v>0.4716200954126058</v>
+        <v>0.00128540166518195</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.381108</v>
+        <v>16.468055</v>
       </c>
       <c r="N10">
-        <v>40.143324</v>
+        <v>49.404165</v>
       </c>
       <c r="O10">
-        <v>0.1773073063814475</v>
+        <v>0.2093987858979925</v>
       </c>
       <c r="P10">
-        <v>0.1967874139191919</v>
+        <v>0.2296134846077913</v>
       </c>
       <c r="Q10">
-        <v>25.795016132652</v>
+        <v>0.4835130735033333</v>
       </c>
       <c r="R10">
-        <v>232.155145193868</v>
+        <v>4.35161766153</v>
       </c>
       <c r="S10">
-        <v>0.08362168875297041</v>
+        <v>0.0002690083416328329</v>
       </c>
       <c r="T10">
-        <v>0.09280889892856924</v>
+        <v>0.000295145555463085</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.927719</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H11">
-        <v>5.783157</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I11">
-        <v>0.4716200954126058</v>
+        <v>0.001284670016013745</v>
       </c>
       <c r="J11">
-        <v>0.4716200954126058</v>
+        <v>0.00128540166518195</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.945679999999999</v>
+        <v>9.699348499999999</v>
       </c>
       <c r="N11">
-        <v>17.89136</v>
+        <v>19.398697</v>
       </c>
       <c r="O11">
-        <v>0.1185353578007432</v>
+        <v>0.1233316138366987</v>
       </c>
       <c r="P11">
-        <v>0.08770560369881859</v>
+        <v>0.09015843937491316</v>
       </c>
       <c r="Q11">
-        <v>17.24475730392</v>
+        <v>0.2847793381923333</v>
       </c>
       <c r="R11">
-        <v>103.46854382352</v>
+        <v>1.708676029154</v>
       </c>
       <c r="S11">
-        <v>0.05590365675575388</v>
+        <v>0.0001584404263225927</v>
       </c>
       <c r="T11">
-        <v>0.04136372518465702</v>
+        <v>0.0001158898081027193</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.927719</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H12">
-        <v>5.783157</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I12">
-        <v>0.4716200954126058</v>
+        <v>0.001284670016013745</v>
       </c>
       <c r="J12">
-        <v>0.4716200954126058</v>
+        <v>0.00128540166518195</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.526935333333334</v>
+        <v>14.41376933333333</v>
       </c>
       <c r="N12">
-        <v>28.580806</v>
+        <v>43.241308</v>
       </c>
       <c r="O12">
-        <v>0.1262373222025838</v>
+        <v>0.1832776122385866</v>
       </c>
       <c r="P12">
-        <v>0.1401065567083116</v>
+        <v>0.2009706551842089</v>
       </c>
       <c r="Q12">
-        <v>18.365254253838</v>
+        <v>0.4231978768062222</v>
       </c>
       <c r="R12">
-        <v>165.287288284542</v>
+        <v>3.808780891256</v>
       </c>
       <c r="S12">
-        <v>0.05953605794181441</v>
+        <v>0.000235451253049506</v>
       </c>
       <c r="T12">
-        <v>0.06607706764270557</v>
+        <v>0.0002583280148264897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.927719</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H13">
-        <v>5.783157</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I13">
-        <v>0.4716200954126058</v>
+        <v>0.001284670016013745</v>
       </c>
       <c r="J13">
-        <v>0.4716200954126058</v>
+        <v>0.00128540166518195</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.58761566666667</v>
+        <v>12.430761</v>
       </c>
       <c r="N13">
-        <v>46.762847</v>
+        <v>37.292283</v>
       </c>
       <c r="O13">
-        <v>0.2065447903690724</v>
+        <v>0.1580627621894702</v>
       </c>
       <c r="P13">
-        <v>0.2292371137135739</v>
+        <v>0.1733216429952798</v>
       </c>
       <c r="Q13">
-        <v>30.048542885331</v>
+        <v>0.3649754301339999</v>
       </c>
       <c r="R13">
-        <v>270.436885967979</v>
+        <v>3.284778871206</v>
       </c>
       <c r="S13">
-        <v>0.0974106737408386</v>
+        <v>0.0002030584912331234</v>
       </c>
       <c r="T13">
-        <v>0.1081128294417061</v>
+        <v>0.0002227879285182041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.130360666666667</v>
+        <v>4.393919333333334</v>
       </c>
       <c r="H14">
-        <v>6.391082000000001</v>
+        <v>13.181758</v>
       </c>
       <c r="I14">
-        <v>0.5211967620159349</v>
+        <v>0.1922550493965772</v>
       </c>
       <c r="J14">
-        <v>0.5211967620159349</v>
+        <v>0.1923645430760597</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.466326</v>
+        <v>11.0717415</v>
       </c>
       <c r="N14">
-        <v>26.932652</v>
+        <v>22.143483</v>
       </c>
       <c r="O14">
-        <v>0.178436493443925</v>
+        <v>0.1407822130710894</v>
       </c>
       <c r="P14">
-        <v>0.1320271070991917</v>
+        <v>0.1029152560919386</v>
       </c>
       <c r="Q14">
-        <v>28.68813123491067</v>
+        <v>48.648339030519</v>
       </c>
       <c r="R14">
-        <v>172.1287874094641</v>
+        <v>291.890034183114</v>
       </c>
       <c r="S14">
-        <v>0.09300052260845132</v>
+        <v>0.02706609132814175</v>
       </c>
       <c r="T14">
-        <v>0.06881210071842978</v>
+        <v>0.01979724621368143</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.130360666666667</v>
+        <v>4.393919333333334</v>
       </c>
       <c r="H15">
-        <v>6.391082000000001</v>
+        <v>13.181758</v>
       </c>
       <c r="I15">
-        <v>0.5211967620159349</v>
+        <v>0.1922550493965772</v>
       </c>
       <c r="J15">
-        <v>0.5211967620159349</v>
+        <v>0.1923645430760597</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>43.682362</v>
       </c>
       <c r="O15">
-        <v>0.1929387298022281</v>
+        <v>0.1851470127661626</v>
       </c>
       <c r="P15">
-        <v>0.2141362048609124</v>
+        <v>0.2030205217458683</v>
       </c>
       <c r="Q15">
-        <v>31.01972861063155</v>
+        <v>63.97892497248844</v>
       </c>
       <c r="R15">
-        <v>279.177557495684</v>
+        <v>575.810324752396</v>
       </c>
       <c r="S15">
-        <v>0.1005590412403887</v>
+        <v>0.0355954480849873</v>
       </c>
       <c r="T15">
-        <v>0.1116070966038884</v>
+        <v>0.03905394990070721</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.130360666666667</v>
+        <v>4.393919333333334</v>
       </c>
       <c r="H16">
-        <v>6.391082000000001</v>
+        <v>13.181758</v>
       </c>
       <c r="I16">
-        <v>0.5211967620159349</v>
+        <v>0.1922550493965772</v>
       </c>
       <c r="J16">
-        <v>0.5211967620159349</v>
+        <v>0.1923645430760597</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.381108</v>
+        <v>16.468055</v>
       </c>
       <c r="N16">
-        <v>40.143324</v>
+        <v>49.404165</v>
       </c>
       <c r="O16">
-        <v>0.1773073063814475</v>
+        <v>0.2093987858979925</v>
       </c>
       <c r="P16">
-        <v>0.1967874139191919</v>
+        <v>0.2296134846077913</v>
       </c>
       <c r="Q16">
-        <v>28.50658615961867</v>
+        <v>72.35930524689667</v>
       </c>
       <c r="R16">
-        <v>256.559275436568</v>
+        <v>651.23374722207</v>
       </c>
       <c r="S16">
-        <v>0.09241199396777776</v>
+        <v>0.04025797392640185</v>
       </c>
       <c r="T16">
-        <v>0.1025649629401723</v>
+        <v>0.04416949305067965</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.130360666666667</v>
+        <v>4.393919333333334</v>
       </c>
       <c r="H17">
-        <v>6.391082000000001</v>
+        <v>13.181758</v>
       </c>
       <c r="I17">
-        <v>0.5211967620159349</v>
+        <v>0.1922550493965772</v>
       </c>
       <c r="J17">
-        <v>0.5211967620159349</v>
+        <v>0.1923645430760597</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.945679999999999</v>
+        <v>9.699348499999999</v>
       </c>
       <c r="N17">
-        <v>17.89136</v>
+        <v>19.398697</v>
       </c>
       <c r="O17">
-        <v>0.1185353578007432</v>
+        <v>0.1233316138366987</v>
       </c>
       <c r="P17">
-        <v>0.08770560369881859</v>
+        <v>0.09015843937491316</v>
       </c>
       <c r="Q17">
-        <v>19.05752480858667</v>
+        <v>42.61815489488767</v>
       </c>
       <c r="R17">
-        <v>114.34514885152</v>
+        <v>255.708929369326</v>
       </c>
       <c r="S17">
-        <v>0.06178024467014764</v>
+        <v>0.02371112551033409</v>
       </c>
       <c r="T17">
-        <v>0.04571187665847706</v>
+        <v>0.0173432869948058</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.130360666666667</v>
+        <v>4.393919333333334</v>
       </c>
       <c r="H18">
-        <v>6.391082000000001</v>
+        <v>13.181758</v>
       </c>
       <c r="I18">
-        <v>0.5211967620159349</v>
+        <v>0.1922550493965772</v>
       </c>
       <c r="J18">
-        <v>0.5211967620159349</v>
+        <v>0.1923645430760597</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.526935333333334</v>
+        <v>14.41376933333333</v>
       </c>
       <c r="N18">
-        <v>28.580806</v>
+        <v>43.241308</v>
       </c>
       <c r="O18">
-        <v>0.1262373222025838</v>
+        <v>0.1832776122385866</v>
       </c>
       <c r="P18">
-        <v>0.1401065567083116</v>
+        <v>0.2009706551842089</v>
       </c>
       <c r="Q18">
-        <v>20.29580830801023</v>
+        <v>63.33293973994046</v>
       </c>
       <c r="R18">
-        <v>182.662274772092</v>
+        <v>569.9964576594641</v>
       </c>
       <c r="S18">
-        <v>0.06579448357754895</v>
+        <v>0.03523604639421619</v>
       </c>
       <c r="T18">
-        <v>0.07302308369357395</v>
+        <v>0.0386596282562067</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.393919333333334</v>
+      </c>
+      <c r="H19">
+        <v>13.181758</v>
+      </c>
+      <c r="I19">
+        <v>0.1922550493965772</v>
+      </c>
+      <c r="J19">
+        <v>0.1923645430760597</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.430761</v>
+      </c>
+      <c r="N19">
+        <v>37.292283</v>
+      </c>
+      <c r="O19">
+        <v>0.1580627621894702</v>
+      </c>
+      <c r="P19">
+        <v>0.1733216429952798</v>
+      </c>
+      <c r="Q19">
+        <v>54.619761085946</v>
+      </c>
+      <c r="R19">
+        <v>491.577849773514</v>
+      </c>
+      <c r="S19">
+        <v>0.03038836415249602</v>
+      </c>
+      <c r="T19">
+        <v>0.03334093865997895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>17.14445133333333</v>
+      </c>
+      <c r="H20">
+        <v>51.433354</v>
+      </c>
+      <c r="I20">
+        <v>0.7501519914036991</v>
+      </c>
+      <c r="J20">
+        <v>0.7505792202435541</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.0717415</v>
+      </c>
+      <c r="N20">
+        <v>22.143483</v>
+      </c>
+      <c r="O20">
+        <v>0.1407822130710894</v>
+      </c>
+      <c r="P20">
+        <v>0.1029152560919386</v>
+      </c>
+      <c r="Q20">
+        <v>189.818933321997</v>
+      </c>
+      <c r="R20">
+        <v>1138.913599931982</v>
+      </c>
+      <c r="S20">
+        <v>0.1056080574894976</v>
+      </c>
+      <c r="T20">
+        <v>0.07724605266865292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>17.14445133333333</v>
+      </c>
+      <c r="H21">
+        <v>51.433354</v>
+      </c>
+      <c r="I21">
+        <v>0.7501519914036991</v>
+      </c>
+      <c r="J21">
+        <v>0.7505792202435541</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.56078733333333</v>
+      </c>
+      <c r="N21">
+        <v>43.682362</v>
+      </c>
+      <c r="O21">
+        <v>0.1851470127661626</v>
+      </c>
+      <c r="P21">
+        <v>0.2030205217458683</v>
+      </c>
+      <c r="Q21">
+        <v>249.6367098113497</v>
+      </c>
+      <c r="R21">
+        <v>2246.730388302148</v>
+      </c>
+      <c r="S21">
+        <v>0.138888400328983</v>
+      </c>
+      <c r="T21">
+        <v>0.1523829849054534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.14445133333333</v>
+      </c>
+      <c r="H22">
+        <v>51.433354</v>
+      </c>
+      <c r="I22">
+        <v>0.7501519914036991</v>
+      </c>
+      <c r="J22">
+        <v>0.7505792202435541</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.468055</v>
+      </c>
+      <c r="N22">
+        <v>49.404165</v>
+      </c>
+      <c r="O22">
+        <v>0.2093987858979925</v>
+      </c>
+      <c r="P22">
+        <v>0.2296134846077913</v>
+      </c>
+      <c r="Q22">
+        <v>282.3357675021567</v>
+      </c>
+      <c r="R22">
+        <v>2541.02190751941</v>
+      </c>
+      <c r="S22">
+        <v>0.1570809162388959</v>
+      </c>
+      <c r="T22">
+        <v>0.1723431102343213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.14445133333333</v>
+      </c>
+      <c r="H23">
+        <v>51.433354</v>
+      </c>
+      <c r="I23">
+        <v>0.7501519914036991</v>
+      </c>
+      <c r="J23">
+        <v>0.7505792202435541</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.699348499999999</v>
+      </c>
+      <c r="N23">
+        <v>19.398697</v>
+      </c>
+      <c r="O23">
+        <v>0.1233316138366987</v>
+      </c>
+      <c r="P23">
+        <v>0.09015843937491316</v>
+      </c>
+      <c r="Q23">
+        <v>166.2900083232896</v>
+      </c>
+      <c r="R23">
+        <v>997.7400499397379</v>
+      </c>
+      <c r="S23">
+        <v>0.09251745572263152</v>
+      </c>
+      <c r="T23">
+        <v>0.06767105112439806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.14445133333333</v>
+      </c>
+      <c r="H24">
+        <v>51.433354</v>
+      </c>
+      <c r="I24">
+        <v>0.7501519914036991</v>
+      </c>
+      <c r="J24">
+        <v>0.7505792202435541</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.41376933333333</v>
+      </c>
+      <c r="N24">
+        <v>43.241308</v>
+      </c>
+      <c r="O24">
+        <v>0.1832776122385866</v>
+      </c>
+      <c r="P24">
+        <v>0.2009706551842089</v>
+      </c>
+      <c r="Q24">
+        <v>247.1161668652258</v>
+      </c>
+      <c r="R24">
+        <v>2224.045501787032</v>
+      </c>
+      <c r="S24">
+        <v>0.1374860658004907</v>
+      </c>
+      <c r="T24">
+        <v>0.1508443976599997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.14445133333333</v>
+      </c>
+      <c r="H25">
+        <v>51.433354</v>
+      </c>
+      <c r="I25">
+        <v>0.7501519914036991</v>
+      </c>
+      <c r="J25">
+        <v>0.7505792202435541</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.430761</v>
+      </c>
+      <c r="N25">
+        <v>37.292283</v>
+      </c>
+      <c r="O25">
+        <v>0.1580627621894702</v>
+      </c>
+      <c r="P25">
+        <v>0.1733216429952798</v>
+      </c>
+      <c r="Q25">
+        <v>213.118577000798</v>
+      </c>
+      <c r="R25">
+        <v>1918.067193007182</v>
+      </c>
+      <c r="S25">
+        <v>0.1185710958232004</v>
+      </c>
+      <c r="T25">
+        <v>0.1300916236507287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.247879</v>
+      </c>
+      <c r="H26">
+        <v>3.743637000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.0546006925903096</v>
+      </c>
+      <c r="J26">
+        <v>0.05463178894253947</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11.0717415</v>
+      </c>
+      <c r="N26">
+        <v>22.143483</v>
+      </c>
+      <c r="O26">
+        <v>0.1407822130710894</v>
+      </c>
+      <c r="P26">
+        <v>0.1029152560919386</v>
+      </c>
+      <c r="Q26">
+        <v>13.8161937112785</v>
+      </c>
+      <c r="R26">
+        <v>82.89716226767101</v>
+      </c>
+      <c r="S26">
+        <v>0.007686806338078017</v>
+      </c>
+      <c r="T26">
+        <v>0.005622444549782188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.247879</v>
+      </c>
+      <c r="H27">
+        <v>3.743637000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.0546006925903096</v>
+      </c>
+      <c r="J27">
+        <v>0.05463178894253947</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>14.56078733333333</v>
+      </c>
+      <c r="N27">
+        <v>43.682362</v>
+      </c>
+      <c r="O27">
+        <v>0.1851470127661626</v>
+      </c>
+      <c r="P27">
+        <v>0.2030205217458683</v>
+      </c>
+      <c r="Q27">
+        <v>18.17010073673267</v>
+      </c>
+      <c r="R27">
+        <v>163.530906630594</v>
+      </c>
+      <c r="S27">
+        <v>0.01010915512805937</v>
+      </c>
+      <c r="T27">
+        <v>0.01109137429502452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.130360666666667</v>
-      </c>
-      <c r="H19">
-        <v>6.391082000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.5211967620159349</v>
-      </c>
-      <c r="J19">
-        <v>0.5211967620159349</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>15.58761566666667</v>
-      </c>
-      <c r="N19">
-        <v>46.762847</v>
-      </c>
-      <c r="O19">
-        <v>0.2065447903690724</v>
-      </c>
-      <c r="P19">
-        <v>0.2292371137135739</v>
-      </c>
-      <c r="Q19">
-        <v>33.20724330338378</v>
-      </c>
-      <c r="R19">
-        <v>298.8651897304541</v>
-      </c>
-      <c r="S19">
-        <v>0.1076504759516206</v>
-      </c>
-      <c r="T19">
-        <v>0.1194776414013934</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.247879</v>
+      </c>
+      <c r="H28">
+        <v>3.743637000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.0546006925903096</v>
+      </c>
+      <c r="J28">
+        <v>0.05463178894253947</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>16.468055</v>
+      </c>
+      <c r="N28">
+        <v>49.404165</v>
+      </c>
+      <c r="O28">
+        <v>0.2093987858979925</v>
+      </c>
+      <c r="P28">
+        <v>0.2296134846077913</v>
+      </c>
+      <c r="Q28">
+        <v>20.550140005345</v>
+      </c>
+      <c r="R28">
+        <v>184.951260048105</v>
+      </c>
+      <c r="S28">
+        <v>0.01143331873760035</v>
+      </c>
+      <c r="T28">
+        <v>0.01254419542945389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.247879</v>
+      </c>
+      <c r="H29">
+        <v>3.743637000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.0546006925903096</v>
+      </c>
+      <c r="J29">
+        <v>0.05463178894253947</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>9.699348499999999</v>
+      </c>
+      <c r="N29">
+        <v>19.398697</v>
+      </c>
+      <c r="O29">
+        <v>0.1233316138366987</v>
+      </c>
+      <c r="P29">
+        <v>0.09015843937491316</v>
+      </c>
+      <c r="Q29">
+        <v>12.1036133068315</v>
+      </c>
+      <c r="R29">
+        <v>72.621679840989</v>
+      </c>
+      <c r="S29">
+        <v>0.006733991533764358</v>
+      </c>
+      <c r="T29">
+        <v>0.004925516831318996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.247879</v>
+      </c>
+      <c r="H30">
+        <v>3.743637000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.0546006925903096</v>
+      </c>
+      <c r="J30">
+        <v>0.05463178894253947</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>14.41376933333333</v>
+      </c>
+      <c r="N30">
+        <v>43.241308</v>
+      </c>
+      <c r="O30">
+        <v>0.1832776122385866</v>
+      </c>
+      <c r="P30">
+        <v>0.2009706551842089</v>
+      </c>
+      <c r="Q30">
+        <v>17.98664006191067</v>
+      </c>
+      <c r="R30">
+        <v>161.8797605571961</v>
+      </c>
+      <c r="S30">
+        <v>0.01000708456452503</v>
+      </c>
+      <c r="T30">
+        <v>0.01097938641766758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.247879</v>
+      </c>
+      <c r="H31">
+        <v>3.743637000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.0546006925903096</v>
+      </c>
+      <c r="J31">
+        <v>0.05463178894253947</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>12.430761</v>
+      </c>
+      <c r="N31">
+        <v>37.292283</v>
+      </c>
+      <c r="O31">
+        <v>0.1580627621894702</v>
+      </c>
+      <c r="P31">
+        <v>0.1733216429952798</v>
+      </c>
+      <c r="Q31">
+        <v>15.512085605919</v>
+      </c>
+      <c r="R31">
+        <v>139.608770453271</v>
+      </c>
+      <c r="S31">
+        <v>0.008630336288282471</v>
+      </c>
+      <c r="T31">
+        <v>0.009468871419292299</v>
       </c>
     </row>
   </sheetData>
